--- a/biology/Zoologie/Hister_quadrimaculatus/Hister_quadrimaculatus.xlsx
+++ b/biology/Zoologie/Hister_quadrimaculatus/Hister_quadrimaculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hister quadrimaculatus est une espèce d'insectes de l'ordre des coléoptères, de la famille des Histeridae, sous-famille des Histerinae, de la tribu des Histerini et du genre Hister.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corps long de 7 à 10 mm, ovale convexe, noir brillant, les antennes brunes avec massue jaunâtre à l'apex. Labre petit. Mandibules longues et grossièrement ponctuées. Tête avec une dépression transverse et ponctuée juste en arrière de la strie frontale. Les angles antérieurs et les côtés du pronotum ponctués au-delà de la strie latérale. Élytre avec une strie sub-humérale externe longue et arquée. Tibias antérieurs avec 5 dents sur leur arête externe et une dent obtuse sur leur bord interne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corps long de 7 à 10 mm, ovale convexe, noir brillant, les antennes brunes avec massue jaunâtre à l'apex. Labre petit. Mandibules longues et grossièrement ponctuées. Tête avec une dépression transverse et ponctuée juste en arrière de la strie frontale. Les angles antérieurs et les côtés du pronotum ponctués au-delà de la strie latérale. Élytre avec une strie sub-humérale externe longue et arquée. Tibias antérieurs avec 5 dents sur leur arête externe et une dent obtuse sur leur bord interne.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Hister quadrimaculatus a été décrite par le naturaliste suédois Carl von Linné en 1758[2].
-Synonymie
-Selon Fauna Europaea                                      (31 août 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hister quadrimaculatus a été décrite par le naturaliste suédois Carl von Linné en 1758.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hister_quadrimaculatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hister_quadrimaculatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (31 août 2014) :
 Hister reniformis Olivier, 1789
 Hister lunatus Scriba, 1790
 Hister sinuatus Herbst, 1792
